--- a/天堂月免服.xlsx
+++ b/天堂月免服.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="天堂免" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,22 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>beanfunflash2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左浮動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>選單下邊線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.hicdn.beanfun.com/beanfun/GamaWWW/lineagefree/images/banner/img_start.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,22 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動歷史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +150,30 @@
   </si>
   <si>
     <t>icon2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>側邊選單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/banner/banner.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要導覽列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要導覽列下邊線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,13 +226,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,219 +518,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>708</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>1920</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1570</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>660</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>286</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="1">
-        <v>295</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>278</v>
+      </c>
+      <c r="F5" s="1">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>295</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+        <v>278</v>
+      </c>
+      <c r="F6" s="1">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1920</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="1">
-        <v>1570</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>187</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="1">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
+        <v>300</v>
+      </c>
+      <c r="F9" s="1">
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1">
-        <v>59</v>
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
+        <v>708</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>278</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1">
-        <v>278</v>
-      </c>
-      <c r="E12" s="1">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="F11" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -740,211 +751,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>708</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>1920</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1570</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>660</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="1">
-        <v>286</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="1">
-        <v>240</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>278</v>
+      </c>
+      <c r="F5" s="1">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>240</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+        <v>278</v>
+      </c>
+      <c r="F6" s="1">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1920</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="1">
-        <v>1570</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>187</v>
+      </c>
+      <c r="F7" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
+        <v>300</v>
+      </c>
+      <c r="F9" s="1">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>708</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>278</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="1">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1">
-        <v>278</v>
-      </c>
-      <c r="E12" s="1">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="F11" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C9" r:id="rId3"/>
-    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
